--- a/PCI DSS/PCI_DSS_v3_ZH-CN.xlsx
+++ b/PCI DSS/PCI_DSS_v3_ZH-CN.xlsx
@@ -66556,6 +66556,39 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -66564,69 +66597,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -66645,6 +66615,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -66673,44 +66652,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -67049,8 +67049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -67709,31 +67709,31 @@
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="113" t="s">
+      <c r="B70" s="82" t="s">
         <v>1016</v>
       </c>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B71" s="114" t="s">
+      <c r="B71" s="74" t="s">
         <v>1017</v>
       </c>
-      <c r="C71" s="113" t="s">
+      <c r="C71" s="82" t="s">
         <v>1165</v>
       </c>
-      <c r="D71" s="113"/>
+      <c r="D71" s="82"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="2:6" ht="132" customHeight="1">
-      <c r="B72" s="121" t="s">
+      <c r="B72" s="77" t="s">
         <v>1018</v>
       </c>
-      <c r="C72" s="124" t="s">
+      <c r="C72" s="83" t="s">
         <v>1170</v>
       </c>
-      <c r="D72" s="124"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="2:6">
@@ -67761,112 +67761,112 @@
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B76" s="120" t="s">
+      <c r="B76" s="81" t="s">
         <v>1168</v>
       </c>
-      <c r="C76" s="117" t="s">
+      <c r="C76" s="78" t="s">
         <v>1166</v>
       </c>
-      <c r="D76" s="114" t="s">
+      <c r="D76" s="74" t="s">
         <v>1158</v>
       </c>
-      <c r="E76" s="114" t="s">
+      <c r="E76" s="74" t="s">
         <v>1161</v>
       </c>
-      <c r="F76" s="114" t="s">
+      <c r="F76" s="74" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B77" s="120"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="115" t="s">
+      <c r="B77" s="81"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="75" t="s">
         <v>1019</v>
       </c>
-      <c r="E77" s="114" t="s">
+      <c r="E77" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="74" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="120"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="116" t="s">
+      <c r="B78" s="81"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="76" t="s">
         <v>1020</v>
       </c>
-      <c r="E78" s="114" t="s">
+      <c r="E78" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="F78" s="114" t="s">
+      <c r="F78" s="74" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="120"/>
-      <c r="C79" s="117" t="s">
+      <c r="B79" s="81"/>
+      <c r="C79" s="78" t="s">
         <v>1169</v>
       </c>
-      <c r="D79" s="116" t="s">
+      <c r="D79" s="76" t="s">
         <v>1022</v>
       </c>
-      <c r="E79" s="114" t="s">
+      <c r="E79" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="F79" s="114" t="s">
+      <c r="F79" s="74" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="120"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="116" t="s">
+      <c r="B80" s="81"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="76" t="s">
         <v>1023</v>
       </c>
-      <c r="E80" s="114" t="s">
+      <c r="E80" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="F80" s="114" t="s">
+      <c r="F80" s="74" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="120"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="115" t="s">
+      <c r="B81" s="81"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="75" t="s">
         <v>1024</v>
       </c>
-      <c r="E81" s="114" t="s">
+      <c r="E81" s="74" t="s">
         <v>1164</v>
       </c>
-      <c r="F81" s="114" t="s">
+      <c r="F81" s="74" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B82" s="120"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="115" t="s">
+      <c r="B82" s="81"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="75" t="s">
         <v>1025</v>
       </c>
-      <c r="E82" s="114" t="s">
+      <c r="E82" s="74" t="s">
         <v>1164</v>
       </c>
-      <c r="F82" s="114" t="s">
+      <c r="F82" s="74" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B83" s="120"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="115" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="75" t="s">
         <v>1026</v>
       </c>
-      <c r="E83" s="114" t="s">
+      <c r="E83" s="74" t="s">
         <v>1164</v>
       </c>
-      <c r="F83" s="114" t="s">
+      <c r="F83" s="74" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -67875,7 +67875,7 @@
         <v>1021</v>
       </c>
       <c r="C84"/>
-      <c r="E84" s="112"/>
+      <c r="E84" s="73"/>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="69" t="s">
@@ -68727,12 +68727,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B70:D70"/>
     <mergeCell ref="C76:C78"/>
     <mergeCell ref="C79:C83"/>
     <mergeCell ref="B76:B83"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
-    <mergeCell ref="B70:D70"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68801,12 +68801,12 @@
       <c r="F6" s="49"/>
     </row>
     <row r="7" spans="3:6" ht="79.5" customHeight="1">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="84" t="s">
         <v>1130</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="3:6" ht="13.5" customHeight="1">
       <c r="C8" s="9" t="s">
@@ -73345,415 +73345,415 @@
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="87" t="s">
         <v>894</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="99" t="s">
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="2:32">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="90" t="s">
         <v>895</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92" t="s">
         <v>896</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="102" t="s">
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="92" t="s">
         <v>897</v>
       </c>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="93" t="s">
         <v>898</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="95" t="s">
         <v>899</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="94" t="s">
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="95" t="s">
         <v>900</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="96" t="s">
         <v>901</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="94" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="109" t="s">
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="102" t="s">
         <v>903</v>
       </c>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32">
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="94" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="95" t="s">
         <v>904</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="94" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="95" t="s">
         <v>905</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32">
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="94" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="95" t="s">
         <v>906</v>
       </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="87" t="s">
         <v>894</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="99" t="s">
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="94" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="95" t="s">
         <v>907</v>
       </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="93" t="s">
         <v>908</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95" t="s">
         <v>909</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="95" t="s">
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="111" t="s">
         <v>910</v>
       </c>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="112"/>
+      <c r="AC14" s="112"/>
+      <c r="AD14" s="112"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="93" t="s">
         <v>911</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95" t="s">
         <v>912</v>
       </c>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="95" t="s">
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="111" t="s">
         <v>913</v>
       </c>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
+      <c r="W15" s="112"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="112"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="112"/>
+      <c r="AD15" s="112"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
@@ -74003,31 +74003,31 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="2:32">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="113" t="s">
         <v>921</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -74353,31 +74353,31 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="113" t="s">
         <v>931</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -74423,33 +74423,33 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="91" t="s">
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="114" t="s">
         <v>933</v>
       </c>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91" t="s">
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114" t="s">
         <v>934</v>
       </c>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
@@ -74460,33 +74460,33 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="105" t="s">
         <v>935</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84" t="s">
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="107" t="s">
         <v>936</v>
       </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="105"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="105"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
@@ -74497,33 +74497,33 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="115" t="s">
         <v>937</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="78" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117" t="s">
         <v>938</v>
       </c>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="120"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="115"/>
+      <c r="X37" s="115"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
@@ -74534,33 +74534,33 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="115" t="s">
         <v>939</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="78" t="s">
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="117" t="s">
         <v>940</v>
       </c>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="76"/>
-      <c r="V38" s="76"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="76"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
+      <c r="W38" s="115"/>
+      <c r="X38" s="115"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
@@ -74571,33 +74571,33 @@
       <c r="AF38" s="1"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="115" t="s">
         <v>941</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="78" t="s">
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="117" t="s">
         <v>942</v>
       </c>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="76"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="76"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="120"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="115"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -74608,33 +74608,33 @@
       <c r="AF39" s="1"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="115" t="s">
         <v>943</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="78" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="117" t="s">
         <v>944</v>
       </c>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="76"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="76"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="118"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
+      <c r="W40" s="115"/>
+      <c r="X40" s="115"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
@@ -74645,33 +74645,33 @@
       <c r="AF40" s="1"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="115" t="s">
         <v>945</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78" t="s">
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="117" t="s">
         <v>946</v>
       </c>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="118"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="120"/>
+      <c r="U41" s="115"/>
+      <c r="V41" s="115"/>
+      <c r="W41" s="115"/>
+      <c r="X41" s="115"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
@@ -74787,33 +74787,33 @@
       <c r="AF44" s="1"/>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="91" t="s">
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="114" t="s">
         <v>933</v>
       </c>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91" t="s">
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114" t="s">
         <v>934</v>
       </c>
-      <c r="S45" s="91"/>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="91"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="114"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
@@ -74824,35 +74824,35 @@
       <c r="AF45" s="1"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="105" t="s">
         <v>935</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="107" t="s">
         <v>950</v>
       </c>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="87" t="s">
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="110" t="s">
         <v>951</v>
       </c>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="105"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -74863,35 +74863,35 @@
       <c r="AF46" s="1"/>
     </row>
     <row r="47" spans="2:32" ht="14.25">
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="115" t="s">
         <v>937</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="78" t="s">
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="117" t="s">
         <v>952</v>
       </c>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="88" t="s">
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="121" t="s">
         <v>953</v>
       </c>
-      <c r="S47" s="89"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="89"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="89"/>
+      <c r="S47" s="122"/>
+      <c r="T47" s="122"/>
+      <c r="U47" s="122"/>
+      <c r="V47" s="122"/>
+      <c r="W47" s="122"/>
+      <c r="X47" s="122"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
@@ -74902,35 +74902,35 @@
       <c r="AF47" s="1"/>
     </row>
     <row r="48" spans="2:32">
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="115" t="s">
         <v>939</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="78" t="s">
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="117" t="s">
         <v>954</v>
       </c>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="81" t="s">
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="120" t="s">
         <v>955</v>
       </c>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="76"/>
-      <c r="V48" s="76"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="76"/>
+      <c r="S48" s="115"/>
+      <c r="T48" s="115"/>
+      <c r="U48" s="115"/>
+      <c r="V48" s="115"/>
+      <c r="W48" s="115"/>
+      <c r="X48" s="115"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
@@ -74941,35 +74941,35 @@
       <c r="AF48" s="1"/>
     </row>
     <row r="49" spans="2:32">
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="115" t="s">
         <v>941</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78" t="s">
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="117" t="s">
         <v>956</v>
       </c>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="81" t="s">
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="118"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="119"/>
+      <c r="R49" s="120" t="s">
         <v>957</v>
       </c>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="76"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="76"/>
-      <c r="X49" s="76"/>
+      <c r="S49" s="115"/>
+      <c r="T49" s="115"/>
+      <c r="U49" s="115"/>
+      <c r="V49" s="115"/>
+      <c r="W49" s="115"/>
+      <c r="X49" s="115"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
@@ -74980,35 +74980,35 @@
       <c r="AF49" s="1"/>
     </row>
     <row r="50" spans="2:32">
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="115" t="s">
         <v>943</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="78" t="s">
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="117" t="s">
         <v>958</v>
       </c>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="81" t="s">
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="118"/>
+      <c r="N50" s="118"/>
+      <c r="O50" s="118"/>
+      <c r="P50" s="118"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="120" t="s">
         <v>959</v>
       </c>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
+      <c r="S50" s="115"/>
+      <c r="T50" s="115"/>
+      <c r="U50" s="115"/>
+      <c r="V50" s="115"/>
+      <c r="W50" s="115"/>
+      <c r="X50" s="115"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
@@ -75019,35 +75019,35 @@
       <c r="AF50" s="1"/>
     </row>
     <row r="51" spans="2:32">
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="115" t="s">
         <v>945</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78" t="s">
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="117" t="s">
         <v>960</v>
       </c>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="81" t="s">
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="118"/>
+      <c r="N51" s="118"/>
+      <c r="O51" s="118"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="120" t="s">
         <v>961</v>
       </c>
-      <c r="S51" s="76"/>
-      <c r="T51" s="76"/>
-      <c r="U51" s="76"/>
-      <c r="V51" s="76"/>
-      <c r="W51" s="76"/>
-      <c r="X51" s="76"/>
+      <c r="S51" s="115"/>
+      <c r="T51" s="115"/>
+      <c r="U51" s="115"/>
+      <c r="V51" s="115"/>
+      <c r="W51" s="115"/>
+      <c r="X51" s="115"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
@@ -75556,27 +75556,42 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="V5:AD5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="V6:AD6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:U7"/>
-    <mergeCell ref="V7:AD7"/>
-    <mergeCell ref="B8:I11"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="V8:AD11"/>
-    <mergeCell ref="J9:U9"/>
-    <mergeCell ref="J10:U10"/>
-    <mergeCell ref="J11:U11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:U13"/>
-    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="I50:Q50"/>
+    <mergeCell ref="R50:X50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="I51:Q51"/>
+    <mergeCell ref="R51:X51"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:Q48"/>
+    <mergeCell ref="R48:X48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="I49:Q49"/>
+    <mergeCell ref="R49:X49"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="I46:Q46"/>
+    <mergeCell ref="R46:X46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:Q47"/>
+    <mergeCell ref="R47:X47"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="I41:S41"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="I45:Q45"/>
+    <mergeCell ref="R45:X45"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:S39"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="I40:S40"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="I37:S37"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="T38:X38"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="I36:S36"/>
     <mergeCell ref="T36:X36"/>
@@ -75591,42 +75606,27 @@
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="I35:S35"/>
     <mergeCell ref="T35:X35"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="I37:S37"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:S39"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I40:S40"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="I41:S41"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="I45:Q45"/>
-    <mergeCell ref="R45:X45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="I46:Q46"/>
-    <mergeCell ref="R46:X46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:Q47"/>
-    <mergeCell ref="R47:X47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:Q48"/>
-    <mergeCell ref="R48:X48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="I49:Q49"/>
-    <mergeCell ref="R49:X49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="I50:Q50"/>
-    <mergeCell ref="R50:X50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="I51:Q51"/>
-    <mergeCell ref="R51:X51"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:U7"/>
+    <mergeCell ref="V7:AD7"/>
+    <mergeCell ref="B8:I11"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="V8:AD11"/>
+    <mergeCell ref="J9:U9"/>
+    <mergeCell ref="J10:U10"/>
+    <mergeCell ref="J11:U11"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="V5:AD5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="V6:AD6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -75646,134 +75646,134 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="81" t="s">
         <v>1168</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="78" t="s">
         <v>1166</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="74" t="s">
         <v>1158</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="74" t="s">
         <v>1161</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="74" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="25.5">
-      <c r="C6" s="120"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="115" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="75" t="s">
         <v>1019</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="74" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="120"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="116" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="76" t="s">
         <v>1020</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="74" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="120"/>
-      <c r="D8" s="117" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="78" t="s">
         <v>1169</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="76" t="s">
         <v>1022</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="74" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="120"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="116" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="76" t="s">
         <v>1023</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="74" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="22.5">
-      <c r="C10" s="120"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="115" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="75" t="s">
         <v>1024</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="74" t="s">
         <v>1164</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="74" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="38.25">
-      <c r="C11" s="120"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="115" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="75" t="s">
         <v>1025</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="74" t="s">
         <v>1164</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="74" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="25.5">
-      <c r="C12" s="120"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="115" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="75" t="s">
         <v>1026</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="74" t="s">
         <v>1164</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="74" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="123" t="s">
         <v>1016</v>
       </c>
-      <c r="E15" s="123"/>
+      <c r="E15" s="124"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="74" t="s">
         <v>1017</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="74" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="148.5">
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="77" t="s">
         <v>1018</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="77" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -75786,5 +75786,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>